--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H2">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>11.4436197207072</v>
+        <v>0.1112246666666667</v>
       </c>
       <c r="N2">
-        <v>11.4436197207072</v>
+        <v>0.333674</v>
       </c>
       <c r="O2">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089436</v>
       </c>
       <c r="P2">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089434</v>
       </c>
       <c r="Q2">
-        <v>940.1587080069161</v>
+        <v>17.42406109875933</v>
       </c>
       <c r="R2">
-        <v>940.1587080069161</v>
+        <v>156.816549888834</v>
       </c>
       <c r="S2">
-        <v>0.03354590493219493</v>
+        <v>0.0005377552588021451</v>
       </c>
       <c r="T2">
-        <v>0.03354590493219493</v>
+        <v>0.000537755258802145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H3">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.90056595894971</v>
+        <v>11.825228</v>
       </c>
       <c r="N3">
-        <v>1.90056595894971</v>
+        <v>35.475684</v>
       </c>
       <c r="O3">
-        <v>0.1424265222753237</v>
+        <v>0.851329675722</v>
       </c>
       <c r="P3">
-        <v>0.1424265222753237</v>
+        <v>0.8513296757219999</v>
       </c>
       <c r="Q3">
-        <v>156.1423465701865</v>
+        <v>1852.498203444916</v>
       </c>
       <c r="R3">
-        <v>156.1423465701865</v>
+        <v>16672.48383100424</v>
       </c>
       <c r="S3">
-        <v>0.005571332020140985</v>
+        <v>0.05717327580393773</v>
       </c>
       <c r="T3">
-        <v>0.005571332020140985</v>
+        <v>0.05717327580393772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.0672454806176</v>
+        <v>156.656447</v>
       </c>
       <c r="H4">
-        <v>42.0672454806176</v>
+        <v>469.969341</v>
       </c>
       <c r="I4">
-        <v>0.02002970214550016</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J4">
-        <v>0.02002970214550016</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.4436197207072</v>
+        <v>0.03793733333333333</v>
       </c>
       <c r="N4">
-        <v>11.4436197207072</v>
+        <v>0.113812</v>
       </c>
       <c r="O4">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="P4">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="Q4">
-        <v>481.4015599778264</v>
+        <v>5.943127848654665</v>
       </c>
       <c r="R4">
-        <v>481.4015599778264</v>
+        <v>53.488150637892</v>
       </c>
       <c r="S4">
-        <v>0.01717694132670599</v>
+        <v>0.0001834215477225967</v>
       </c>
       <c r="T4">
-        <v>0.01717694132670599</v>
+        <v>0.0001834215477225967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.0672454806176</v>
+        <v>156.656447</v>
       </c>
       <c r="H5">
-        <v>42.0672454806176</v>
+        <v>469.969341</v>
       </c>
       <c r="I5">
-        <v>0.02002970214550016</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J5">
-        <v>0.02002970214550016</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.90056595894971</v>
+        <v>1.915914</v>
       </c>
       <c r="N5">
-        <v>1.90056595894971</v>
+        <v>5.747742000000001</v>
       </c>
       <c r="O5">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="P5">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="Q5">
-        <v>79.95157474724284</v>
+        <v>300.140279997558</v>
       </c>
       <c r="R5">
-        <v>79.95157474724284</v>
+        <v>2701.262519978022</v>
       </c>
       <c r="S5">
-        <v>0.002852760818794177</v>
+        <v>0.009263168502004827</v>
       </c>
       <c r="T5">
-        <v>0.002852760818794177</v>
+        <v>0.009263168502004827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1955.69235837974</v>
+        <v>42.300692</v>
       </c>
       <c r="H6">
-        <v>1955.69235837974</v>
+        <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.9311742420745218</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J6">
-        <v>0.9311742420745218</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>11.4436197207072</v>
+        <v>0.1112246666666667</v>
       </c>
       <c r="N6">
-        <v>11.4436197207072</v>
+        <v>0.333674</v>
       </c>
       <c r="O6">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089436</v>
       </c>
       <c r="P6">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089434</v>
       </c>
       <c r="Q6">
-        <v>22380.19963999077</v>
+        <v>4.704880367469333</v>
       </c>
       <c r="R6">
-        <v>22380.19963999077</v>
+        <v>42.343923307224</v>
       </c>
       <c r="S6">
-        <v>0.7985503331434873</v>
+        <v>0.0001452057672032472</v>
       </c>
       <c r="T6">
-        <v>0.7985503331434873</v>
+        <v>0.0001452057672032471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1955.69235837974</v>
+        <v>42.300692</v>
       </c>
       <c r="H7">
-        <v>1955.69235837974</v>
+        <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.9311742420745218</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J7">
-        <v>0.9311742420745218</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.90056595894971</v>
+        <v>11.825228</v>
       </c>
       <c r="N7">
-        <v>1.90056595894971</v>
+        <v>35.475684</v>
       </c>
       <c r="O7">
-        <v>0.1424265222753237</v>
+        <v>0.851329675722</v>
       </c>
       <c r="P7">
-        <v>0.1424265222753237</v>
+        <v>0.8513296757219999</v>
       </c>
       <c r="Q7">
-        <v>3716.92232251461</v>
+        <v>500.215327457776</v>
       </c>
       <c r="R7">
-        <v>3716.92232251461</v>
+        <v>4501.937947119984</v>
       </c>
       <c r="S7">
-        <v>0.1326239089310345</v>
+        <v>0.01543804405581484</v>
       </c>
       <c r="T7">
-        <v>0.1326239089310345</v>
+        <v>0.01543804405581484</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.327873306709</v>
+        <v>42.300692</v>
       </c>
       <c r="H8">
-        <v>20.327873306709</v>
+        <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.009678818827642125</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J8">
-        <v>0.009678818827642125</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>11.4436197207072</v>
+        <v>0.03793733333333333</v>
       </c>
       <c r="N8">
-        <v>11.4436197207072</v>
+        <v>0.113812</v>
       </c>
       <c r="O8">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="P8">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="Q8">
-        <v>232.6244518526926</v>
+        <v>1.604775452634666</v>
       </c>
       <c r="R8">
-        <v>232.6244518526926</v>
+        <v>14.442979073712</v>
       </c>
       <c r="S8">
-        <v>0.008300298322288133</v>
+        <v>4.952785885905394E-05</v>
       </c>
       <c r="T8">
-        <v>0.008300298322288133</v>
+        <v>4.952785885905394E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.327873306709</v>
+        <v>42.300692</v>
       </c>
       <c r="H9">
-        <v>20.327873306709</v>
+        <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.009678818827642125</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J9">
-        <v>0.009678818827642125</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.90056595894971</v>
+        <v>1.915914</v>
       </c>
       <c r="N9">
-        <v>1.90056595894971</v>
+        <v>5.747742000000001</v>
       </c>
       <c r="O9">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="P9">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="Q9">
-        <v>38.6344640245736</v>
+        <v>81.044488012488</v>
       </c>
       <c r="R9">
-        <v>38.6344640245736</v>
+        <v>729.4003921123921</v>
       </c>
       <c r="S9">
-        <v>0.001378520505353993</v>
+        <v>0.002501259573105265</v>
       </c>
       <c r="T9">
-        <v>0.001378520505353993</v>
+        <v>0.002501259573105265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2110.189616</v>
+      </c>
+      <c r="H10">
+        <v>6330.568848</v>
+      </c>
+      <c r="I10">
+        <v>0.9046248489651427</v>
+      </c>
+      <c r="J10">
+        <v>0.9046248489651426</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1112246666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.333674</v>
+      </c>
+      <c r="O10">
+        <v>0.008007360146089436</v>
+      </c>
+      <c r="P10">
+        <v>0.008007360146089434</v>
+      </c>
+      <c r="Q10">
+        <v>234.7051366430614</v>
+      </c>
+      <c r="R10">
+        <v>2112.346229787552</v>
+      </c>
+      <c r="S10">
+        <v>0.007243656962765659</v>
+      </c>
+      <c r="T10">
+        <v>0.007243656962765656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2110.189616</v>
+      </c>
+      <c r="H11">
+        <v>6330.568848</v>
+      </c>
+      <c r="I11">
+        <v>0.9046248489651427</v>
+      </c>
+      <c r="J11">
+        <v>0.9046248489651426</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.825228</v>
+      </c>
+      <c r="N11">
+        <v>35.475684</v>
+      </c>
+      <c r="O11">
+        <v>0.851329675722</v>
+      </c>
+      <c r="P11">
+        <v>0.8513296757219999</v>
+      </c>
+      <c r="Q11">
+        <v>24953.47333243245</v>
+      </c>
+      <c r="R11">
+        <v>224581.259991892</v>
+      </c>
+      <c r="S11">
+        <v>0.7701339793195582</v>
+      </c>
+      <c r="T11">
+        <v>0.770133979319558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2110.189616</v>
+      </c>
+      <c r="H12">
+        <v>6330.568848</v>
+      </c>
+      <c r="I12">
+        <v>0.9046248489651427</v>
+      </c>
+      <c r="J12">
+        <v>0.9046248489651426</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03793733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.113812</v>
+      </c>
+      <c r="O12">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="P12">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="Q12">
+        <v>80.05496685873067</v>
+      </c>
+      <c r="R12">
+        <v>720.4947017285759</v>
+      </c>
+      <c r="S12">
+        <v>0.002470720182712123</v>
+      </c>
+      <c r="T12">
+        <v>0.002470720182712123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2110.189616</v>
+      </c>
+      <c r="H13">
+        <v>6330.568848</v>
+      </c>
+      <c r="I13">
+        <v>0.9046248489651427</v>
+      </c>
+      <c r="J13">
+        <v>0.9046248489651426</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.915914</v>
+      </c>
+      <c r="N13">
+        <v>5.747742000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="P13">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="Q13">
+        <v>4042.941827949025</v>
+      </c>
+      <c r="R13">
+        <v>36386.47645154122</v>
+      </c>
+      <c r="S13">
+        <v>0.1247764925001067</v>
+      </c>
+      <c r="T13">
+        <v>0.1247764925001067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>23.52144266666667</v>
+      </c>
+      <c r="H14">
+        <v>70.564328</v>
+      </c>
+      <c r="I14">
+        <v>0.01008349266740757</v>
+      </c>
+      <c r="J14">
+        <v>0.01008349266740757</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1112246666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.333674</v>
+      </c>
+      <c r="O14">
+        <v>0.008007360146089436</v>
+      </c>
+      <c r="P14">
+        <v>0.008007360146089434</v>
+      </c>
+      <c r="Q14">
+        <v>2.616164620119112</v>
+      </c>
+      <c r="R14">
+        <v>23.545481581072</v>
+      </c>
+      <c r="S14">
+        <v>8.074215731838444E-05</v>
+      </c>
+      <c r="T14">
+        <v>8.074215731838441E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>23.52144266666667</v>
+      </c>
+      <c r="H15">
+        <v>70.564328</v>
+      </c>
+      <c r="I15">
+        <v>0.01008349266740757</v>
+      </c>
+      <c r="J15">
+        <v>0.01008349266740757</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.825228</v>
+      </c>
+      <c r="N15">
+        <v>35.475684</v>
+      </c>
+      <c r="O15">
+        <v>0.851329675722</v>
+      </c>
+      <c r="P15">
+        <v>0.8513296757219999</v>
+      </c>
+      <c r="Q15">
+        <v>278.1464224222614</v>
+      </c>
+      <c r="R15">
+        <v>2503.317801800352</v>
+      </c>
+      <c r="S15">
+        <v>0.008584376542689252</v>
+      </c>
+      <c r="T15">
+        <v>0.008584376542689251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>23.52144266666667</v>
+      </c>
+      <c r="H16">
+        <v>70.564328</v>
+      </c>
+      <c r="I16">
+        <v>0.01008349266740757</v>
+      </c>
+      <c r="J16">
+        <v>0.01008349266740757</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03793733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.113812</v>
+      </c>
+      <c r="O16">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="P16">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="Q16">
+        <v>0.8923408109262222</v>
+      </c>
+      <c r="R16">
+        <v>8.031067298336</v>
+      </c>
+      <c r="S16">
+        <v>2.754013321001927E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.754013321001926E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>23.52144266666667</v>
+      </c>
+      <c r="H17">
+        <v>70.564328</v>
+      </c>
+      <c r="I17">
+        <v>0.01008349266740757</v>
+      </c>
+      <c r="J17">
+        <v>0.01008349266740757</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.915914</v>
+      </c>
+      <c r="N17">
+        <v>5.747742000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="P17">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="Q17">
+        <v>45.06506130526401</v>
+      </c>
+      <c r="R17">
+        <v>405.5855517473761</v>
+      </c>
+      <c r="S17">
+        <v>0.001390833834189915</v>
+      </c>
+      <c r="T17">
+        <v>0.001390833834189914</v>
       </c>
     </row>
   </sheetData>
